--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
@@ -498,16 +498,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,6 +507,9 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1120,15 +1113,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,6 +1130,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,6 +1206,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1215,33 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2978,9 +2971,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="17"/>
       <c r="J31" s="21"/>
-      <c r="R31" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="17"/>
@@ -3020,20 +3011,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>50</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="26"/>
+    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S39" s="26"/>
-    </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3508,7 +3503,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3570,169 +3565,169 @@
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="s">
+      <c r="C12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="33" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="35"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="32"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="36" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="38"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="35"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <f t="shared" ref="B14:B15" si="0">B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="38"/>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="32"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="38"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
@@ -3760,18 +3755,18 @@
     <row r="33" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I12:Y12"/>
     <mergeCell ref="Z12:AH12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="I13:Y13"/>
     <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3803,728 +3798,728 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="55" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="57"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="66"/>
     </row>
     <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="49" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="56"/>
+      <c r="N4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="49" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="49" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49" t="s">
+      <c r="S4" s="56"/>
+      <c r="T4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="50"/>
-      <c r="V4" s="49" t="s">
+      <c r="U4" s="56"/>
+      <c r="V4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="50"/>
-      <c r="X4" s="49" t="s">
+      <c r="W4" s="56"/>
+      <c r="X4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="49" t="s">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="49" t="s">
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="49" t="s">
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="49" t="s">
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="49" t="s">
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="49" t="s">
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="49" t="s">
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="49" t="s">
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="49" t="s">
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="49" t="s">
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="49" t="s">
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="49" t="s">
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="50"/>
+      <c r="AW4" s="56"/>
     </row>
     <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="52"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="58"/>
     </row>
     <row r="6" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="52"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="58"/>
     </row>
     <row r="7" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="52"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="58"/>
     </row>
     <row r="8" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="52"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="52"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="58"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="58"/>
     </row>
     <row r="9" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="52"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="58"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="58"/>
     </row>
     <row r="10" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="52"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="58"/>
     </row>
     <row r="11" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="52"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="58"/>
     </row>
     <row r="12" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="52"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="52"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="58"/>
     </row>
     <row r="13" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="52"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="52"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="52"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="58"/>
     </row>
     <row r="14" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="52"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="52"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="58"/>
     </row>
     <row r="15" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="53"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="54"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="60"/>
     </row>
     <row r="16" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="8" t="s">
         <v>18</v>
       </c>
@@ -4573,15 +4568,15 @@
       <c r="AW16" s="10"/>
     </row>
     <row r="17" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
       <c r="L17" s="11"/>
@@ -4624,19 +4619,19 @@
       <c r="AW17" s="13"/>
     </row>
     <row r="18" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="63"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="8"/>
       <c r="K18" s="10" t="s">
         <v>27</v>
@@ -4685,15 +4680,15 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4738,19 +4733,19 @@
       <c r="AW19" s="13"/>
     </row>
     <row r="20" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="63"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="62"/>
+      <c r="B20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10" t="s">
         <v>26</v>
@@ -4799,15 +4794,15 @@
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="63"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="11"/>
       <c r="K21" s="13" t="s">
         <v>25</v>
@@ -4856,19 +4851,19 @@
       <c r="AW21" s="13"/>
     </row>
     <row r="22" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="8"/>
@@ -4911,15 +4906,15 @@
       <c r="AW22" s="10"/>
     </row>
     <row r="23" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="11"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
@@ -4962,19 +4957,19 @@
       <c r="AW23" s="13"/>
     </row>
     <row r="24" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="63"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
       <c r="L24" s="8"/>
@@ -5017,15 +5012,15 @@
       <c r="AW24" s="10"/>
     </row>
     <row r="25" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="11"/>
       <c r="K25" s="13"/>
       <c r="L25" s="11"/>
@@ -5068,19 +5063,19 @@
       <c r="AW25" s="13"/>
     </row>
     <row r="26" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8"/>
@@ -5123,15 +5118,15 @@
       <c r="AW26" s="10"/>
     </row>
     <row r="27" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="63"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="11"/>
       <c r="K27" s="13"/>
       <c r="L27" s="11"/>
@@ -5174,19 +5169,19 @@
       <c r="AW27" s="13"/>
     </row>
     <row r="28" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="8"/>
@@ -5229,15 +5224,15 @@
       <c r="AW28" s="10"/>
     </row>
     <row r="29" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="63"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="11"/>
       <c r="K29" s="13"/>
       <c r="L29" s="11"/>
@@ -5280,19 +5275,19 @@
       <c r="AW29" s="13"/>
     </row>
     <row r="30" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="63"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="8"/>
@@ -5335,15 +5330,15 @@
       <c r="AW30" s="10"/>
     </row>
     <row r="31" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="11"/>
       <c r="K31" s="13"/>
       <c r="L31" s="11"/>
@@ -5386,19 +5381,19 @@
       <c r="AW31" s="13"/>
     </row>
     <row r="32" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="8"/>
@@ -5441,15 +5436,15 @@
       <c r="AW32" s="10"/>
     </row>
     <row r="33" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="11"/>
       <c r="K33" s="13"/>
       <c r="L33" s="11"/>
@@ -5492,19 +5487,19 @@
       <c r="AW33" s="13"/>
     </row>
     <row r="34" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
       <c r="L34" s="8"/>
@@ -5547,15 +5542,15 @@
       <c r="AW34" s="10"/>
     </row>
     <row r="35" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="11"/>
       <c r="K35" s="13"/>
       <c r="L35" s="11"/>
@@ -5598,19 +5593,19 @@
       <c r="AW35" s="13"/>
     </row>
     <row r="36" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="62"/>
+      <c r="B36" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="46"/>
+      <c r="D36" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
       <c r="L36" s="8"/>
@@ -5653,15 +5648,15 @@
       <c r="AW36" s="10"/>
     </row>
     <row r="37" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="11"/>
       <c r="K37" s="13"/>
       <c r="L37" s="11"/>
@@ -5704,19 +5699,19 @@
       <c r="AW37" s="13"/>
     </row>
     <row r="38" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="62"/>
+      <c r="B38" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="46"/>
+      <c r="D38" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="8"/>
       <c r="K38" s="10"/>
       <c r="L38" s="8"/>
@@ -5759,15 +5754,15 @@
       <c r="AW38" s="10"/>
     </row>
     <row r="39" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="63"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="11"/>
       <c r="K39" s="13"/>
       <c r="L39" s="11"/>
@@ -5810,19 +5805,19 @@
       <c r="AW39" s="13"/>
     </row>
     <row r="40" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="62"/>
+      <c r="B40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="46"/>
+      <c r="D40" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="8"/>
@@ -5865,15 +5860,15 @@
       <c r="AW40" s="10"/>
     </row>
     <row r="41" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="11"/>
       <c r="K41" s="13"/>
       <c r="L41" s="11"/>
@@ -5916,19 +5911,19 @@
       <c r="AW41" s="13"/>
     </row>
     <row r="42" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="8"/>
@@ -5971,15 +5966,15 @@
       <c r="AW42" s="10"/>
     </row>
     <row r="43" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="63"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54"/>
       <c r="J43" s="11"/>
       <c r="K43" s="13"/>
       <c r="L43" s="11"/>
@@ -6022,19 +6017,19 @@
       <c r="AW43" s="13"/>
     </row>
     <row r="44" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63"/>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
       <c r="L44" s="8"/>
@@ -6077,15 +6072,15 @@
       <c r="AW44" s="10"/>
     </row>
     <row r="45" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="54"/>
       <c r="J45" s="11"/>
       <c r="K45" s="13"/>
       <c r="L45" s="11"/>
@@ -6128,19 +6123,19 @@
       <c r="AW45" s="13"/>
     </row>
     <row r="46" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="62"/>
+      <c r="B46" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="43" t="s">
+      <c r="C46" s="46"/>
+      <c r="D46" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
       <c r="L46" s="8"/>
@@ -6183,15 +6178,15 @@
       <c r="AW46" s="10"/>
     </row>
     <row r="47" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="11"/>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
@@ -6234,19 +6229,19 @@
       <c r="AW47" s="13"/>
     </row>
     <row r="48" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63"/>
-      <c r="B48" s="39" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="43" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
       <c r="J48" s="8"/>
       <c r="K48" s="10"/>
       <c r="L48" s="8"/>
@@ -6289,15 +6284,15 @@
       <c r="AW48" s="10"/>
     </row>
     <row r="49" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
       <c r="J49" s="11"/>
       <c r="K49" s="13"/>
       <c r="L49" s="11"/>
@@ -6340,19 +6335,19 @@
       <c r="AW49" s="13"/>
     </row>
     <row r="50" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="62"/>
+      <c r="B50" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="43" t="s">
+      <c r="C50" s="46"/>
+      <c r="D50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="45"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="8"/>
       <c r="K50" s="10"/>
       <c r="L50" s="8"/>
@@ -6395,15 +6390,15 @@
       <c r="AW50" s="10"/>
     </row>
     <row r="51" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="11"/>
       <c r="K51" s="13"/>
       <c r="L51" s="11"/>
@@ -6446,19 +6441,19 @@
       <c r="AW51" s="13"/>
     </row>
     <row r="52" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="63"/>
-      <c r="B52" s="39" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="43" t="s">
+      <c r="C52" s="46"/>
+      <c r="D52" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
       <c r="L52" s="8"/>
@@ -6501,15 +6496,15 @@
       <c r="AW52" s="10"/>
     </row>
     <row r="53" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="11"/>
       <c r="K53" s="13"/>
       <c r="L53" s="11"/>
@@ -6552,16 +6547,16 @@
       <c r="AW53" s="13"/>
     </row>
     <row r="54" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66" t="s">
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="8">
         <f>COUNTIF(J16:K53,"=C")</f>
         <v>1</v>
@@ -6724,16 +6719,16 @@
       </c>
     </row>
     <row r="55" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69" t="s">
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="70"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="11">
         <f>COUNTIF(J16:K53,"=U")</f>
         <v>1</v>
@@ -6897,24 +6892,37 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:I47"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:I53"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:I49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:I51"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:I43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:I33"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:I29"/>
+    <mergeCell ref="AR4:AS15"/>
+    <mergeCell ref="AT4:AU15"/>
+    <mergeCell ref="AV4:AW15"/>
+    <mergeCell ref="J3:AW3"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:I23"/>
+    <mergeCell ref="AH4:AI15"/>
+    <mergeCell ref="AJ4:AK15"/>
+    <mergeCell ref="AL4:AM15"/>
+    <mergeCell ref="AN4:AO15"/>
+    <mergeCell ref="AP4:AQ15"/>
+    <mergeCell ref="A3:I15"/>
+    <mergeCell ref="J4:K15"/>
+    <mergeCell ref="L4:M15"/>
+    <mergeCell ref="N4:O15"/>
+    <mergeCell ref="P4:Q15"/>
+    <mergeCell ref="R4:S15"/>
+    <mergeCell ref="T4:U15"/>
+    <mergeCell ref="V4:W15"/>
+    <mergeCell ref="X4:Y15"/>
+    <mergeCell ref="Z4:AA15"/>
     <mergeCell ref="AB4:AC15"/>
     <mergeCell ref="AD4:AE15"/>
     <mergeCell ref="AF4:AG15"/>
@@ -6931,37 +6939,24 @@
     <mergeCell ref="D36:I37"/>
     <mergeCell ref="B38:C39"/>
     <mergeCell ref="D38:I39"/>
-    <mergeCell ref="R4:S15"/>
-    <mergeCell ref="T4:U15"/>
-    <mergeCell ref="V4:W15"/>
-    <mergeCell ref="X4:Y15"/>
-    <mergeCell ref="Z4:AA15"/>
-    <mergeCell ref="AR4:AS15"/>
-    <mergeCell ref="AT4:AU15"/>
-    <mergeCell ref="AV4:AW15"/>
-    <mergeCell ref="J3:AW3"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:I23"/>
-    <mergeCell ref="AH4:AI15"/>
-    <mergeCell ref="AJ4:AK15"/>
-    <mergeCell ref="AL4:AM15"/>
-    <mergeCell ref="AN4:AO15"/>
-    <mergeCell ref="AP4:AQ15"/>
-    <mergeCell ref="A3:I15"/>
-    <mergeCell ref="J4:K15"/>
-    <mergeCell ref="L4:M15"/>
-    <mergeCell ref="N4:O15"/>
-    <mergeCell ref="P4:Q15"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:I33"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:I29"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:I43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:I47"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:I53"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:I49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:I51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
@@ -498,6 +498,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,9 +517,6 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1113,6 +1120,15 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,33 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,15 +1195,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1215,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2971,7 +2978,9 @@
       <c r="G31" s="20"/>
       <c r="H31" s="17"/>
       <c r="J31" s="21"/>
-      <c r="R31" s="22"/>
+      <c r="R31" s="22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="17"/>
@@ -3011,24 +3020,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3503,7 +3508,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3565,169 +3570,169 @@
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30" t="s">
+      <c r="C12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="30" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="32"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="35"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="35"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="38"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <f t="shared" ref="B14:B15" si="0">B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="36" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="38"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="32"/>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="36" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="38"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="32"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
@@ -3755,18 +3760,18 @@
     <row r="33" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:Y12"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:Y15"/>
     <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:Y14"/>
     <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:Y12"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3798,728 +3803,728 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="64" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="57"/>
     </row>
     <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="55" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="55" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="55" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="55" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="55" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="55" t="s">
+      <c r="U4" s="50"/>
+      <c r="V4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="55" t="s">
+      <c r="W4" s="50"/>
+      <c r="X4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="55" t="s">
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="55" t="s">
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="55" t="s">
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="55" t="s">
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="55" t="s">
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="55" t="s">
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="55" t="s">
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="55" t="s">
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="55" t="s">
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="55" t="s">
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="55" t="s">
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="55" t="s">
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="56"/>
+      <c r="AW4" s="50"/>
     </row>
     <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="52"/>
     </row>
     <row r="6" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="57"/>
-      <c r="AW6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="52"/>
     </row>
     <row r="7" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="52"/>
     </row>
     <row r="8" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="52"/>
     </row>
     <row r="9" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="52"/>
     </row>
     <row r="10" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="52"/>
     </row>
     <row r="11" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="52"/>
     </row>
     <row r="12" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="52"/>
     </row>
     <row r="13" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="52"/>
     </row>
     <row r="14" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="52"/>
     </row>
     <row r="15" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="60"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="54"/>
     </row>
     <row r="16" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="49" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="8" t="s">
         <v>18</v>
       </c>
@@ -4568,15 +4573,15 @@
       <c r="AW16" s="10"/>
     </row>
     <row r="17" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
       <c r="L17" s="11"/>
@@ -4619,19 +4624,19 @@
       <c r="AW17" s="13"/>
     </row>
     <row r="18" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="8"/>
       <c r="K18" s="10" t="s">
         <v>27</v>
@@ -4680,15 +4685,15 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4733,19 +4738,19 @@
       <c r="AW19" s="13"/>
     </row>
     <row r="20" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="49" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10" t="s">
         <v>26</v>
@@ -4794,15 +4799,15 @@
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="11"/>
       <c r="K21" s="13" t="s">
         <v>25</v>
@@ -4851,19 +4856,19 @@
       <c r="AW21" s="13"/>
     </row>
     <row r="22" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="49" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="8"/>
@@ -4906,15 +4911,15 @@
       <c r="AW22" s="10"/>
     </row>
     <row r="23" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="11"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
@@ -4957,19 +4962,19 @@
       <c r="AW23" s="13"/>
     </row>
     <row r="24" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="49" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
       <c r="L24" s="8"/>
@@ -5012,15 +5017,15 @@
       <c r="AW24" s="10"/>
     </row>
     <row r="25" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="11"/>
       <c r="K25" s="13"/>
       <c r="L25" s="11"/>
@@ -5063,19 +5068,19 @@
       <c r="AW25" s="13"/>
     </row>
     <row r="26" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8"/>
@@ -5118,15 +5123,15 @@
       <c r="AW26" s="10"/>
     </row>
     <row r="27" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="11"/>
       <c r="K27" s="13"/>
       <c r="L27" s="11"/>
@@ -5169,19 +5174,19 @@
       <c r="AW27" s="13"/>
     </row>
     <row r="28" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="8"/>
@@ -5224,15 +5229,15 @@
       <c r="AW28" s="10"/>
     </row>
     <row r="29" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="13"/>
       <c r="L29" s="11"/>
@@ -5275,19 +5280,19 @@
       <c r="AW29" s="13"/>
     </row>
     <row r="30" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="8"/>
@@ -5330,15 +5335,15 @@
       <c r="AW30" s="10"/>
     </row>
     <row r="31" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="11"/>
       <c r="K31" s="13"/>
       <c r="L31" s="11"/>
@@ -5381,19 +5386,19 @@
       <c r="AW31" s="13"/>
     </row>
     <row r="32" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="8"/>
@@ -5436,15 +5441,15 @@
       <c r="AW32" s="10"/>
     </row>
     <row r="33" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="11"/>
       <c r="K33" s="13"/>
       <c r="L33" s="11"/>
@@ -5487,19 +5492,19 @@
       <c r="AW33" s="13"/>
     </row>
     <row r="34" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
       <c r="L34" s="8"/>
@@ -5542,15 +5547,15 @@
       <c r="AW34" s="10"/>
     </row>
     <row r="35" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="11"/>
       <c r="K35" s="13"/>
       <c r="L35" s="11"/>
@@ -5593,19 +5598,19 @@
       <c r="AW35" s="13"/>
     </row>
     <row r="36" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
       <c r="L36" s="8"/>
@@ -5648,15 +5653,15 @@
       <c r="AW36" s="10"/>
     </row>
     <row r="37" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="11"/>
       <c r="K37" s="13"/>
       <c r="L37" s="11"/>
@@ -5699,19 +5704,19 @@
       <c r="AW37" s="13"/>
     </row>
     <row r="38" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="8"/>
       <c r="K38" s="10"/>
       <c r="L38" s="8"/>
@@ -5754,15 +5759,15 @@
       <c r="AW38" s="10"/>
     </row>
     <row r="39" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="11"/>
       <c r="K39" s="13"/>
       <c r="L39" s="11"/>
@@ -5805,19 +5810,19 @@
       <c r="AW39" s="13"/>
     </row>
     <row r="40" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="49" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="8"/>
@@ -5860,15 +5865,15 @@
       <c r="AW40" s="10"/>
     </row>
     <row r="41" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="11"/>
       <c r="K41" s="13"/>
       <c r="L41" s="11"/>
@@ -5911,19 +5916,19 @@
       <c r="AW41" s="13"/>
     </row>
     <row r="42" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="8"/>
@@ -5966,15 +5971,15 @@
       <c r="AW42" s="10"/>
     </row>
     <row r="43" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="11"/>
       <c r="K43" s="13"/>
       <c r="L43" s="11"/>
@@ -6017,19 +6022,19 @@
       <c r="AW43" s="13"/>
     </row>
     <row r="44" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="49" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
       <c r="L44" s="8"/>
@@ -6072,15 +6077,15 @@
       <c r="AW44" s="10"/>
     </row>
     <row r="45" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="11"/>
       <c r="K45" s="13"/>
       <c r="L45" s="11"/>
@@ -6123,19 +6128,19 @@
       <c r="AW45" s="13"/>
     </row>
     <row r="46" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="49" t="s">
+      <c r="C46" s="40"/>
+      <c r="D46" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
       <c r="L46" s="8"/>
@@ -6178,15 +6183,15 @@
       <c r="AW46" s="10"/>
     </row>
     <row r="47" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
       <c r="J47" s="11"/>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
@@ -6229,19 +6234,19 @@
       <c r="AW47" s="13"/>
     </row>
     <row r="48" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="49" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="8"/>
       <c r="K48" s="10"/>
       <c r="L48" s="8"/>
@@ -6284,15 +6289,15 @@
       <c r="AW48" s="10"/>
     </row>
     <row r="49" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="11"/>
       <c r="K49" s="13"/>
       <c r="L49" s="11"/>
@@ -6335,19 +6340,19 @@
       <c r="AW49" s="13"/>
     </row>
     <row r="50" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="49" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="8"/>
       <c r="K50" s="10"/>
       <c r="L50" s="8"/>
@@ -6390,15 +6395,15 @@
       <c r="AW50" s="10"/>
     </row>
     <row r="51" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="54"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
       <c r="J51" s="11"/>
       <c r="K51" s="13"/>
       <c r="L51" s="11"/>
@@ -6441,19 +6446,19 @@
       <c r="AW51" s="13"/>
     </row>
     <row r="52" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="49" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
       <c r="L52" s="8"/>
@@ -6496,15 +6501,15 @@
       <c r="AW52" s="10"/>
     </row>
     <row r="53" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="63"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="54"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="11"/>
       <c r="K53" s="13"/>
       <c r="L53" s="11"/>
@@ -6547,16 +6552,16 @@
       <c r="AW53" s="13"/>
     </row>
     <row r="54" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="8">
         <f>COUNTIF(J16:K53,"=C")</f>
         <v>1</v>
@@ -6719,16 +6724,16 @@
       </c>
     </row>
     <row r="55" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43" t="s">
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="11">
         <f>COUNTIF(J16:K53,"=U")</f>
         <v>1</v>
@@ -6892,16 +6897,45 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:I33"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:I29"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:I47"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:I53"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:I49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:I51"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:I43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="AB4:AC15"/>
+    <mergeCell ref="AD4:AE15"/>
+    <mergeCell ref="AF4:AG15"/>
+    <mergeCell ref="A16:A53"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:I19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I21"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:I35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:I37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="R4:S15"/>
+    <mergeCell ref="T4:U15"/>
+    <mergeCell ref="V4:W15"/>
+    <mergeCell ref="X4:Y15"/>
+    <mergeCell ref="Z4:AA15"/>
     <mergeCell ref="AR4:AS15"/>
     <mergeCell ref="AT4:AU15"/>
     <mergeCell ref="AV4:AW15"/>
@@ -6918,45 +6952,16 @@
     <mergeCell ref="L4:M15"/>
     <mergeCell ref="N4:O15"/>
     <mergeCell ref="P4:Q15"/>
-    <mergeCell ref="R4:S15"/>
-    <mergeCell ref="T4:U15"/>
-    <mergeCell ref="V4:W15"/>
-    <mergeCell ref="X4:Y15"/>
-    <mergeCell ref="Z4:AA15"/>
-    <mergeCell ref="AB4:AC15"/>
-    <mergeCell ref="AD4:AE15"/>
-    <mergeCell ref="AF4:AG15"/>
-    <mergeCell ref="A16:A53"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:I19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:I21"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:I35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:I37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:I43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:I47"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:I53"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:I49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:I51"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:I33"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-213_CRUD(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DC3C3C-0717-4F29-9B8D-BD72B50B7EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="1230" yWindow="3390" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -497,25 +508,11 @@
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
   </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1113,6 +1110,15 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,33 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,15 +1185,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1205,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,6 +1312,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1336,7 +1336,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1437,52 +1443,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1503,7 +1463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1590,7 +1556,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1672,7 +1644,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1736,7 +1714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1823,7 +1807,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -1868,7 +1858,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1932,7 +1928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2014,7 +2016,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2098,7 +2106,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2185,7 +2199,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="30" idx="1"/>
@@ -2235,7 +2255,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -2280,7 +2306,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2357,7 +2389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2435,7 +2473,13 @@
     <xdr:ext cx="800219" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2502,7 +2546,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -2552,7 +2602,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2591,7 +2647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2633,7 +2689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2666,9 +2722,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2701,6 +2774,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2876,7 +2966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2985,58 +3075,47 @@
       <c r="R32" s="25"/>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="26"/>
       <c r="S37" s="28"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="26"/>
       <c r="S38" s="27"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>50</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="29"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
-      <c r="R39" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="R39" s="27"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3499,17 +3578,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3565,169 +3641,169 @@
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="30" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="32"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="35"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="35"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="38"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <f t="shared" ref="B14:B15" si="0">B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="36" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="38"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="32"/>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="36" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="38"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="32"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
@@ -3755,18 +3831,18 @@
     <row r="33" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:Y12"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:Y13"/>
+    <mergeCell ref="Z13:AH13"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:Y15"/>
     <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:Y14"/>
     <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:Y12"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:Y13"/>
-    <mergeCell ref="Z13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3782,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3798,728 +3874,728 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="64" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="57"/>
     </row>
     <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="55" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="55" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="55" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="55" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="55" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="V4" s="55" t="s">
+      <c r="U4" s="50"/>
+      <c r="V4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="56"/>
-      <c r="X4" s="55" t="s">
+      <c r="W4" s="50"/>
+      <c r="X4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="55" t="s">
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="55" t="s">
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="55" t="s">
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="55" t="s">
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="55" t="s">
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="55" t="s">
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="55" t="s">
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="55" t="s">
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="55" t="s">
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="55" t="s">
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="55" t="s">
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="55" t="s">
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="56"/>
+      <c r="AW4" s="50"/>
     </row>
     <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="58"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="52"/>
     </row>
     <row r="6" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="58"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="57"/>
-      <c r="AW6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="52"/>
     </row>
     <row r="7" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="58"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="58"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="52"/>
     </row>
     <row r="8" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="58"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="58"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="52"/>
     </row>
     <row r="9" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="52"/>
     </row>
     <row r="10" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="58"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="52"/>
     </row>
     <row r="11" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="52"/>
     </row>
     <row r="12" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="52"/>
     </row>
     <row r="13" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="52"/>
     </row>
     <row r="14" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="52"/>
     </row>
     <row r="15" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="60"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="54"/>
     </row>
     <row r="16" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="49" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="8" t="s">
         <v>18</v>
       </c>
@@ -4568,15 +4644,15 @@
       <c r="AW16" s="10"/>
     </row>
     <row r="17" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="11"/>
       <c r="K17" s="13"/>
       <c r="L17" s="11"/>
@@ -4619,19 +4695,19 @@
       <c r="AW17" s="13"/>
     </row>
     <row r="18" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="49" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="8"/>
       <c r="K18" s="10" t="s">
         <v>27</v>
@@ -4680,15 +4756,15 @@
       <c r="AW18" s="10"/>
     </row>
     <row r="19" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="11" t="s">
         <v>24</v>
       </c>
@@ -4733,19 +4809,19 @@
       <c r="AW19" s="13"/>
     </row>
     <row r="20" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="49" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10" t="s">
         <v>26</v>
@@ -4794,15 +4870,15 @@
       <c r="AW20" s="10"/>
     </row>
     <row r="21" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="11"/>
       <c r="K21" s="13" t="s">
         <v>25</v>
@@ -4851,19 +4927,19 @@
       <c r="AW21" s="13"/>
     </row>
     <row r="22" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="49" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="8"/>
       <c r="K22" s="10"/>
       <c r="L22" s="8"/>
@@ -4906,15 +4982,15 @@
       <c r="AW22" s="10"/>
     </row>
     <row r="23" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="11"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
@@ -4957,19 +5033,19 @@
       <c r="AW23" s="13"/>
     </row>
     <row r="24" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="49" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="8"/>
       <c r="K24" s="10"/>
       <c r="L24" s="8"/>
@@ -5012,15 +5088,15 @@
       <c r="AW24" s="10"/>
     </row>
     <row r="25" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="11"/>
       <c r="K25" s="13"/>
       <c r="L25" s="11"/>
@@ -5063,19 +5139,19 @@
       <c r="AW25" s="13"/>
     </row>
     <row r="26" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="45" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="49" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8"/>
@@ -5118,15 +5194,15 @@
       <c r="AW26" s="10"/>
     </row>
     <row r="27" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="11"/>
       <c r="K27" s="13"/>
       <c r="L27" s="11"/>
@@ -5169,19 +5245,19 @@
       <c r="AW27" s="13"/>
     </row>
     <row r="28" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="8"/>
@@ -5224,15 +5300,15 @@
       <c r="AW28" s="10"/>
     </row>
     <row r="29" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="11"/>
       <c r="K29" s="13"/>
       <c r="L29" s="11"/>
@@ -5275,19 +5351,19 @@
       <c r="AW29" s="13"/>
     </row>
     <row r="30" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="8"/>
@@ -5330,15 +5406,15 @@
       <c r="AW30" s="10"/>
     </row>
     <row r="31" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="11"/>
       <c r="K31" s="13"/>
       <c r="L31" s="11"/>
@@ -5381,19 +5457,19 @@
       <c r="AW31" s="13"/>
     </row>
     <row r="32" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="49" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="8"/>
       <c r="K32" s="10"/>
       <c r="L32" s="8"/>
@@ -5436,15 +5512,15 @@
       <c r="AW32" s="10"/>
     </row>
     <row r="33" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="11"/>
       <c r="K33" s="13"/>
       <c r="L33" s="11"/>
@@ -5487,19 +5563,19 @@
       <c r="AW33" s="13"/>
     </row>
     <row r="34" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="49" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="8"/>
       <c r="K34" s="10"/>
       <c r="L34" s="8"/>
@@ -5542,15 +5618,15 @@
       <c r="AW34" s="10"/>
     </row>
     <row r="35" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="11"/>
       <c r="K35" s="13"/>
       <c r="L35" s="11"/>
@@ -5593,19 +5669,19 @@
       <c r="AW35" s="13"/>
     </row>
     <row r="36" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="45" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="49" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
       <c r="K36" s="10"/>
       <c r="L36" s="8"/>
@@ -5648,15 +5724,15 @@
       <c r="AW36" s="10"/>
     </row>
     <row r="37" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="62"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="11"/>
       <c r="K37" s="13"/>
       <c r="L37" s="11"/>
@@ -5699,19 +5775,19 @@
       <c r="AW37" s="13"/>
     </row>
     <row r="38" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="49" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="8"/>
       <c r="K38" s="10"/>
       <c r="L38" s="8"/>
@@ -5754,15 +5830,15 @@
       <c r="AW38" s="10"/>
     </row>
     <row r="39" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="62"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="11"/>
       <c r="K39" s="13"/>
       <c r="L39" s="11"/>
@@ -5805,19 +5881,19 @@
       <c r="AW39" s="13"/>
     </row>
     <row r="40" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="45" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="49" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="8"/>
       <c r="K40" s="10"/>
       <c r="L40" s="8"/>
@@ -5860,15 +5936,15 @@
       <c r="AW40" s="10"/>
     </row>
     <row r="41" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="54"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="11"/>
       <c r="K41" s="13"/>
       <c r="L41" s="11"/>
@@ -5911,19 +5987,19 @@
       <c r="AW41" s="13"/>
     </row>
     <row r="42" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="45" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="49" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="8"/>
       <c r="K42" s="10"/>
       <c r="L42" s="8"/>
@@ -5966,15 +6042,15 @@
       <c r="AW42" s="10"/>
     </row>
     <row r="43" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="11"/>
       <c r="K43" s="13"/>
       <c r="L43" s="11"/>
@@ -6017,19 +6093,19 @@
       <c r="AW43" s="13"/>
     </row>
     <row r="44" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="49" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="8"/>
       <c r="K44" s="10"/>
       <c r="L44" s="8"/>
@@ -6072,15 +6148,15 @@
       <c r="AW44" s="10"/>
     </row>
     <row r="45" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="54"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="11"/>
       <c r="K45" s="13"/>
       <c r="L45" s="11"/>
@@ -6123,19 +6199,19 @@
       <c r="AW45" s="13"/>
     </row>
     <row r="46" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="49" t="s">
+      <c r="C46" s="40"/>
+      <c r="D46" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="8"/>
       <c r="K46" s="10"/>
       <c r="L46" s="8"/>
@@ -6178,15 +6254,15 @@
       <c r="AW46" s="10"/>
     </row>
     <row r="47" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="48"/>
       <c r="J47" s="11"/>
       <c r="K47" s="13"/>
       <c r="L47" s="11"/>
@@ -6229,19 +6305,19 @@
       <c r="AW47" s="13"/>
     </row>
     <row r="48" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="45" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="49" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="8"/>
       <c r="K48" s="10"/>
       <c r="L48" s="8"/>
@@ -6284,15 +6360,15 @@
       <c r="AW48" s="10"/>
     </row>
     <row r="49" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="11"/>
       <c r="K49" s="13"/>
       <c r="L49" s="11"/>
@@ -6335,19 +6411,19 @@
       <c r="AW49" s="13"/>
     </row>
     <row r="50" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="49" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="8"/>
       <c r="K50" s="10"/>
       <c r="L50" s="8"/>
@@ -6390,15 +6466,15 @@
       <c r="AW50" s="10"/>
     </row>
     <row r="51" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="62"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="54"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="48"/>
       <c r="J51" s="11"/>
       <c r="K51" s="13"/>
       <c r="L51" s="11"/>
@@ -6441,19 +6517,19 @@
       <c r="AW51" s="13"/>
     </row>
     <row r="52" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="49" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="8"/>
       <c r="K52" s="10"/>
       <c r="L52" s="8"/>
@@ -6496,15 +6572,15 @@
       <c r="AW52" s="10"/>
     </row>
     <row r="53" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="63"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="54"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="11"/>
       <c r="K53" s="13"/>
       <c r="L53" s="11"/>
@@ -6547,16 +6623,16 @@
       <c r="AW53" s="13"/>
     </row>
     <row r="54" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40" t="s">
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="8">
         <f>COUNTIF(J16:K53,"=C")</f>
         <v>1</v>
@@ -6719,16 +6795,16 @@
       </c>
     </row>
     <row r="55" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43" t="s">
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="70"/>
       <c r="J55" s="11">
         <f>COUNTIF(J16:K53,"=U")</f>
         <v>1</v>
@@ -6892,16 +6968,45 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:I31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="D32:I33"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:I27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:I29"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:I47"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:I53"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:I49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:I51"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:I43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:I45"/>
+    <mergeCell ref="AB4:AC15"/>
+    <mergeCell ref="AD4:AE15"/>
+    <mergeCell ref="AF4:AG15"/>
+    <mergeCell ref="A16:A53"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:I17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:I19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:I21"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:I35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:I37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="R4:S15"/>
+    <mergeCell ref="T4:U15"/>
+    <mergeCell ref="V4:W15"/>
+    <mergeCell ref="X4:Y15"/>
+    <mergeCell ref="Z4:AA15"/>
     <mergeCell ref="AR4:AS15"/>
     <mergeCell ref="AT4:AU15"/>
     <mergeCell ref="AV4:AW15"/>
@@ -6918,45 +7023,16 @@
     <mergeCell ref="L4:M15"/>
     <mergeCell ref="N4:O15"/>
     <mergeCell ref="P4:Q15"/>
-    <mergeCell ref="R4:S15"/>
-    <mergeCell ref="T4:U15"/>
-    <mergeCell ref="V4:W15"/>
-    <mergeCell ref="X4:Y15"/>
-    <mergeCell ref="Z4:AA15"/>
-    <mergeCell ref="AB4:AC15"/>
-    <mergeCell ref="AD4:AE15"/>
-    <mergeCell ref="AF4:AG15"/>
-    <mergeCell ref="A16:A53"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:I17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:I19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:I21"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:I35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:I37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:I43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:I45"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:I47"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:I53"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:I49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:I51"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:I31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="D32:I33"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:I27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
